--- a/results/mp/tinybert/corona/confidence/210/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,316 +40,301 @@
     <t>name</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>save</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>care</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increased</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>online</t>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>you</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -707,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -826,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -876,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -926,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -976,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,37 +1011,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.96</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.96875</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8888888888888888</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.9583333333333334</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1276,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.875</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,31 +1279,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L13">
-        <v>17</v>
-      </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8376623376623377</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C14">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.9411764705882353</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.9375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8095238095238095</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.925</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7647058823529411</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.8888888888888888</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.2306201550387597</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>397</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.8823529411764706</v>
+        <v>0.8515625</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.8620689655172413</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5833333333333334</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.8571428571428571</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5622317596566524</v>
+        <v>0.05</v>
       </c>
       <c r="C23">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,413 +1779,221 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.8518518518518519</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L23">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>14</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>0.8125</v>
+      </c>
+      <c r="L25">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L27">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L28">
+        <v>85</v>
+      </c>
+      <c r="M28">
+        <v>85</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L29">
         <v>46</v>
       </c>
-      <c r="M23">
+      <c r="M29">
         <v>46</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L24">
-        <v>11</v>
-      </c>
-      <c r="M24">
-        <v>11</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="C25">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L30">
         <v>15</v>
       </c>
-      <c r="D25">
+      <c r="M30">
         <v>15</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25">
-        <v>0.84</v>
-      </c>
-      <c r="L25">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>21</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.5</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>9</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.425</v>
-      </c>
-      <c r="C28">
-        <v>34</v>
-      </c>
-      <c r="D28">
-        <v>34</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>46</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L28">
-        <v>48</v>
-      </c>
-      <c r="M28">
-        <v>48</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>17</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-    </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.3604651162790697</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>55</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
         <v>21</v>
@@ -2218,485 +2011,437 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32">
+        <v>0.76</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33">
+        <v>0.75</v>
+      </c>
+      <c r="L33">
+        <v>120</v>
+      </c>
+      <c r="M33">
+        <v>120</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34">
+        <v>0.75</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>105</v>
-      </c>
-      <c r="J32" s="1" t="s">
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L36">
+        <v>46</v>
+      </c>
+      <c r="M36">
+        <v>46</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L38">
+        <v>67</v>
+      </c>
+      <c r="M38">
+        <v>67</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39">
+        <v>0.7101827676240209</v>
+      </c>
+      <c r="L39">
+        <v>272</v>
+      </c>
+      <c r="M39">
+        <v>272</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>32</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K32">
-        <v>0.8</v>
-      </c>
-      <c r="L32">
+      <c r="K42">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>0.6411764705882353</v>
+      </c>
+      <c r="L43">
+        <v>218</v>
+      </c>
+      <c r="M43">
+        <v>218</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L44">
+        <v>27</v>
+      </c>
+      <c r="M44">
+        <v>27</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>16</v>
       </c>
-      <c r="M32">
-        <v>16</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.06363636363636363</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>103</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.7981220657276995</v>
-      </c>
-      <c r="L33">
-        <v>170</v>
-      </c>
-      <c r="M33">
-        <v>170</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <v>31</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K35">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L35">
+      <c r="K45">
+        <v>0.625</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>15</v>
       </c>
-      <c r="M35">
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.625</v>
+      </c>
+      <c r="L46">
         <v>15</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L36">
-        <v>40</v>
-      </c>
-      <c r="M36">
-        <v>40</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K37">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
+      <c r="K47">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L47">
+        <v>28</v>
+      </c>
+      <c r="M47">
+        <v>28</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K38">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L39">
-        <v>7</v>
-      </c>
-      <c r="M39">
-        <v>7</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.75</v>
-      </c>
-      <c r="L41">
-        <v>9</v>
-      </c>
-      <c r="M41">
-        <v>9</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="L42">
-        <v>54</v>
-      </c>
-      <c r="M42">
-        <v>54</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L43">
-        <v>16</v>
-      </c>
-      <c r="M43">
-        <v>16</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.72</v>
-      </c>
-      <c r="L44">
-        <v>18</v>
-      </c>
-      <c r="M44">
-        <v>18</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45">
-        <v>0.72</v>
-      </c>
-      <c r="L45">
-        <v>18</v>
-      </c>
-      <c r="M45">
-        <v>18</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46">
-        <v>0.7</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46">
-        <v>7</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L47">
-        <v>90</v>
-      </c>
-      <c r="M47">
-        <v>90</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K48">
-        <v>0.696969696969697</v>
+        <v>0.6169491525423729</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2708,21 +2453,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K49">
-        <v>0.6923076923076923</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2734,21 +2479,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2760,21 +2505,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K51">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2791,16 +2536,16 @@
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K52">
-        <v>0.6597222222222222</v>
+        <v>0.575</v>
       </c>
       <c r="L52">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2812,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K53">
-        <v>0.65</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2838,21 +2583,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.6470588235294118</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L54">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2864,21 +2609,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>0.6363636363636364</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2890,21 +2635,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.6153846153846154</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2916,21 +2661,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K57">
-        <v>0.5869565217391305</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L57">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M57">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2942,21 +2687,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K58">
-        <v>0.5714285714285714</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2968,21 +2713,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K59">
-        <v>0.5428571428571428</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2994,47 +2739,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K60">
-        <v>0.5416666666666666</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K61">
-        <v>0.5384615384615384</v>
+        <v>0.390625</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3046,21 +2791,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K62">
-        <v>0.4285714285714285</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3072,21 +2817,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K63">
-        <v>0.3684210526315789</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3098,21 +2843,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K64">
-        <v>0.3243243243243243</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3124,21 +2869,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K65">
-        <v>0.3125</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3150,21 +2895,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K66">
-        <v>0.1666666666666667</v>
+        <v>0.02583333333333333</v>
       </c>
       <c r="L66">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3176,21 +2921,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K67">
-        <v>0.04040404040404041</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3202,21 +2947,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>190</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K68">
-        <v>0.02233250620347394</v>
+        <v>0.01820020222446916</v>
       </c>
       <c r="L68">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3228,21 +2973,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>394</v>
+        <v>971</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K69">
-        <v>0.02195121951219512</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L69">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3254,137 +2999,267 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>401</v>
+        <v>888</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K70">
-        <v>0.01973684210526316</v>
+        <v>0.01432078559738134</v>
       </c>
       <c r="L70">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>447</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K71">
-        <v>0.009812667261373774</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="L71">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N71">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1110</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K72">
-        <v>0.007551240560949299</v>
+        <v>0.01047904191616766</v>
       </c>
       <c r="L72">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M72">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N72">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>920</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K73">
-        <v>0.007445589919816724</v>
+        <v>0.009811774128954745</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>1733</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K74">
-        <v>0.004175365344467641</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L74">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>1908</v>
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K75">
+        <v>0.007164317078807488</v>
+      </c>
+      <c r="L75">
+        <v>31</v>
+      </c>
+      <c r="M75">
+        <v>32</v>
+      </c>
+      <c r="N75">
+        <v>0.97</v>
+      </c>
+      <c r="O75">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K76">
+        <v>0.00715187210769878</v>
+      </c>
+      <c r="L76">
+        <v>17</v>
+      </c>
+      <c r="M76">
+        <v>19</v>
+      </c>
+      <c r="N76">
+        <v>0.89</v>
+      </c>
+      <c r="O76">
+        <v>0.11</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77">
+        <v>0.006551240056153486</v>
+      </c>
+      <c r="L77">
+        <v>14</v>
+      </c>
+      <c r="M77">
+        <v>20</v>
+      </c>
+      <c r="N77">
+        <v>0.7</v>
+      </c>
+      <c r="O77">
+        <v>0.3</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K78">
+        <v>0.006394109668668863</v>
+      </c>
+      <c r="L78">
+        <v>33</v>
+      </c>
+      <c r="M78">
+        <v>37</v>
+      </c>
+      <c r="N78">
+        <v>0.89</v>
+      </c>
+      <c r="O78">
+        <v>0.11</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K79">
+        <v>0.006063230835859679</v>
+      </c>
+      <c r="L79">
+        <v>14</v>
+      </c>
+      <c r="M79">
+        <v>14</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
